--- a/crimes.xlsx
+++ b/crimes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zuzannarumak/Desktop/Spatial_econometrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD7E3C9-9691-0440-8576-7AE8DE64AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBAD079-D1DD-4254-AA99-6DDAAA7209EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="przestepstwa_włamania" sheetId="1" r:id="rId1"/>
@@ -20,79 +20,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
-  <si>
-    <t>Jednostka podziału administracyjnego</t>
-  </si>
-  <si>
-    <t>Rok</t>
-  </si>
-  <si>
-    <t>Przestępstwa stwierdzone</t>
-  </si>
-  <si>
-    <t>Przestępstwa wykryte</t>
-  </si>
-  <si>
-    <t>% wykrycia</t>
-  </si>
-  <si>
-    <t>Polska</t>
-  </si>
-  <si>
-    <t>woj. dolnośląskie</t>
-  </si>
-  <si>
-    <t>woj. kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>woj. lubelskie</t>
-  </si>
-  <si>
-    <t>woj. lubuskie</t>
-  </si>
-  <si>
-    <t>woj. łódzkie</t>
-  </si>
-  <si>
-    <t>woj. małopolskie</t>
-  </si>
-  <si>
-    <t>woj. opolskie</t>
-  </si>
-  <si>
-    <t>woj. podkarpackie</t>
-  </si>
-  <si>
-    <t>woj. podlaskie</t>
-  </si>
-  <si>
-    <t>woj. pomorskie</t>
-  </si>
-  <si>
-    <t>woj. śląskie</t>
-  </si>
-  <si>
-    <t>woj. świętokrzyskie</t>
-  </si>
-  <si>
-    <t>woj. warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>woj. wielkopolskie</t>
-  </si>
-  <si>
-    <t>woj. zachodniopomorskie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">woj. mazowieckie </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">chojnicki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">człuchowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kościerski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdański  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kartuski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nowodworski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pucki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wejherowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytowski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lęborski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">słupski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słupsk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwidzyński  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malborski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">starogardzki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sztumski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tczewski  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdańsk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gdynia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopot  </t>
+  </si>
+  <si>
+    <t>Crimes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -542,8 +563,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -586,55 +622,68 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2 2" xfId="42" xr:uid="{0073D66D-CD00-4CC5-B903-192998A5AFBD}"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,668 +961,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="5">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C7" s="5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2021</v>
-      </c>
-      <c r="C2" s="1">
-        <v>71625</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37154</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="1">
-        <v>66510</v>
-      </c>
-      <c r="D3" s="1">
-        <v>28043</v>
-      </c>
-      <c r="E3" s="2">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C11" s="5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9845</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4533</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10016</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4016</v>
-      </c>
-      <c r="E5" s="2">
-        <v>39.299999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C12" s="5">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3472</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2115</v>
-      </c>
-      <c r="E6" s="2">
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2018</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3311</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1471</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2138</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1477</v>
-      </c>
-      <c r="E8" s="2">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1612</v>
-      </c>
-      <c r="D9">
-        <v>719</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2366</v>
-      </c>
-      <c r="D10">
-        <v>987</v>
-      </c>
-      <c r="E10" s="2">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2305</v>
-      </c>
-      <c r="D11">
-        <v>878</v>
-      </c>
-      <c r="E11" s="2">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5319</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2596</v>
-      </c>
-      <c r="E12" s="2">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2018</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4318</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1368</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C16" s="5">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2021</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3838</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2200</v>
-      </c>
-      <c r="E14" s="2">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>2020</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4155</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2208</v>
-      </c>
-      <c r="E15" s="2">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4190</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1990</v>
-      </c>
-      <c r="E16" s="2">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9969</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4069</v>
-      </c>
-      <c r="E17" s="2">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>2018</v>
-      </c>
-      <c r="C18" s="1">
-        <v>9032</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2550</v>
-      </c>
-      <c r="E18" s="2">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>2021</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1989</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1006</v>
-      </c>
-      <c r="E19" s="2">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2101</v>
-      </c>
-      <c r="D20">
-        <v>846</v>
-      </c>
-      <c r="E20" s="2">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>2021</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1424</v>
-      </c>
-      <c r="D21">
-        <v>771</v>
-      </c>
-      <c r="E21" s="2">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>2018</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1640</v>
-      </c>
-      <c r="D22">
-        <v>777</v>
-      </c>
-      <c r="E22" s="2">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>2021</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1488</v>
-      </c>
-      <c r="D23">
-        <v>880</v>
-      </c>
-      <c r="E23" s="2">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>2018</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1494</v>
-      </c>
-      <c r="D24">
-        <v>560</v>
-      </c>
-      <c r="E24" s="2">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25">
-        <v>2021</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6613</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3151</v>
-      </c>
-      <c r="E25" s="2">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>2020</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6008</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2421</v>
-      </c>
-      <c r="E26" s="2">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>2019</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5929</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2717</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>2018</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5140</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1979</v>
-      </c>
-      <c r="E28" s="2">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>2021</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10370</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6058</v>
-      </c>
-      <c r="E29" s="2">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>2018</v>
-      </c>
-      <c r="C30" s="1">
-        <v>9280</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5161</v>
-      </c>
-      <c r="E30" s="2">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>2021</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1425</v>
-      </c>
-      <c r="E31" s="2">
-        <v>70.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>2018</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1491</v>
-      </c>
-      <c r="D32">
-        <v>877</v>
-      </c>
-      <c r="E32" s="2">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>2021</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2623</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1446</v>
-      </c>
-      <c r="E33" s="2">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34">
-        <v>2018</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2642</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1213</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C20" s="5">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B35">
-        <v>2021</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4506</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2522</v>
-      </c>
-      <c r="E35" s="2">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36">
-        <v>2018</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4146</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37">
-        <v>2021</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3663</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1918</v>
-      </c>
-      <c r="E37" s="2">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <v>2018</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3792</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1738</v>
-      </c>
-      <c r="E38" s="2">
-        <v>44.8</v>
+      <c r="C21" s="5">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition ref="A1:A38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/crimes.xlsx
+++ b/crimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBAD079-D1DD-4254-AA99-6DDAAA7209EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936CA0D0-3D68-4694-8ABE-A467B06BDEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="37" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="przestepstwa_włamania" sheetId="1" r:id="rId1"/>
@@ -20,72 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">chojnicki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">człuchowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kościerski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdański  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kartuski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nowodworski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pucki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wejherowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bytowski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lęborski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">słupski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Słupsk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwidzyński  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">malborski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">starogardzki  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sztumski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tczewski  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gdańsk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gdynia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sopot  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Crimes</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Code</t>
@@ -624,18 +561,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -961,251 +892,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2201</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2202</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2203</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2204</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
         <v>1393</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2205</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3">
         <v>819</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2206</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2207</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="3">
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2208</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="3">
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2209</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3">
         <v>472</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2210</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2211</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="3">
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2212</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3">
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2213</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3">
         <v>1099</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2214</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3">
         <v>1031</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2215</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="3">
         <v>1805</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2216</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2261</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="3">
         <v>6803</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2262</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="3">
         <v>3508</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2263</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="3">
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2264</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="3">
         <v>761</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
     <sortCondition ref="A1:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
